--- a/public/file/CUSTOMER_EXAMPLE.xlsx
+++ b/public/file/CUSTOMER_EXAMPLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia.dnn\Desktop\Appartment-Management-System-Client\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057E54F7-F774-4C85-B025-7B09AA59D1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663A0F0A-1D4E-4871-BFCF-AFA115F456B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer list" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -149,13 +138,13 @@
     <t>0112223334</t>
   </si>
   <si>
-    <t>Data valid?</t>
-  </si>
-  <si>
     <t>Old SSN (if any)</t>
   </si>
   <si>
     <t>Middle name (if any)</t>
+  </si>
+  <si>
+    <t>Process success?</t>
   </si>
 </sst>
 </file>
@@ -640,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>2</v>
@@ -652,7 +641,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>9</v>
@@ -673,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">

--- a/public/file/CUSTOMER_EXAMPLE.xlsx
+++ b/public/file/CUSTOMER_EXAMPLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663A0F0A-1D4E-4871-BFCF-AFA115F456B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F32E7-2E73-42DF-8410-50300454630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,13 +294,13 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,147 +621,106 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N4" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <f>ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5">
-        <v>123456789</v>
-      </c>
-      <c r="H5" s="10">
-        <v>36526</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="11" t="b">
-        <v>0</v>
-      </c>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f>ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G6" s="5">
+        <v>123456789</v>
+      </c>
       <c r="H6" s="10">
-        <v>36827</v>
+        <v>36526</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="11" t="b">
         <v>0</v>
@@ -773,67 +732,108 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="10">
+        <v>36827</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <f>ROW()-4</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="10">
         <v>36891</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="11" t="b">
+      <c r="N8" s="11" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E7" xr:uid="{8C53E51F-FBAF-4EF9-AA5B-5613A204C807}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8" xr:uid="{8C53E51F-FBAF-4EF9-AA5B-5613A204C807}">
       <formula1>"Male,Female,Other,Nam,Nữ,Khác"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{95CF0647-C437-49A3-8E11-16B5F03B5FB0}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{C415FADA-58B2-4776-86B1-352A05E18E3D}"/>
-    <hyperlink ref="J7" r:id="rId3" xr:uid="{ED40133C-02BC-4A84-9B00-431095C75F0D}"/>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{95CF0647-C437-49A3-8E11-16B5F03B5FB0}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{C415FADA-58B2-4776-86B1-352A05E18E3D}"/>
+    <hyperlink ref="J8" r:id="rId3" xr:uid="{ED40133C-02BC-4A84-9B00-431095C75F0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/file/CUSTOMER_EXAMPLE.xlsx
+++ b/public/file/CUSTOMER_EXAMPLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Appartment-Management-System-Client\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia.dnn\Desktop\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F32E7-2E73-42DF-8410-50300454630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F9A5ED-1076-4C8A-A1B1-2C7930C27FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer list" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -294,13 +305,13 @@
         </ext>
       </extLst>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,69 +633,69 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <f>ROW()-4</f>
-        <v>2</v>
+        <f>ROW()-5</f>
+        <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
@@ -728,8 +739,8 @@
     </row>
     <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <f>ROW()-4</f>
-        <v>3</v>
+        <f t="shared" ref="A7:A8" si="0">ROW()-5</f>
+        <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>23</v>
@@ -769,8 +780,8 @@
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <f>ROW()-4</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>27</v>
@@ -810,6 +821,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
@@ -819,11 +835,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8" xr:uid="{8C53E51F-FBAF-4EF9-AA5B-5613A204C807}">

--- a/public/file/CUSTOMER_EXAMPLE.xlsx
+++ b/public/file/CUSTOMER_EXAMPLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nghia.dnn\Desktop\Appartment-Management-System-Client\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F9A5ED-1076-4C8A-A1B1-2C7930C27FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CD6C8F-BA30-4545-91C3-06C109B748C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="900" windowWidth="26970" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer list" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,21 +297,13 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -331,23 +323,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
-<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
-  <bag type="Checkbox"/>
-  <bag type="XFControls">
-    <bagId k="CellControl">0</bagId>
-  </bag>
-  <bag type="XFComplement">
-    <bagId k="XFControls">1</bagId>
-  </bag>
-  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,64 +608,64 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -733,9 +708,7 @@
       <c r="M6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -774,9 +747,7 @@
       <c r="M7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -815,17 +786,10 @@
       <c r="M8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="11" t="b">
-        <v>0</v>
-      </c>
+      <c r="N8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
@@ -835,6 +799,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8" xr:uid="{8C53E51F-FBAF-4EF9-AA5B-5613A204C807}">
